--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2466403.89928395</v>
+        <v>2464151.819572743</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>92.72329049755649</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>168.5177247035044</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>67.24416875037112</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>96.50675189249552</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>343.4798709087831</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>152.6608630788531</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>72.33640507852775</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>45.06776172308889</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>120.7307820829403</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814261</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>157.7822070347172</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576151</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>81.07546534818459</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576151</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318028</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.42721558712929</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>146.7151441592114</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>104.8913819999782</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333643</v>
       </c>
     </row>
     <row r="44">
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>94.05355358057936</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3155.385897666236</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2824.323010322666</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2824.323010322666</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
@@ -4431,16 +4431,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199866</v>
@@ -4452,7 +4452,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1829.812980520315</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1540.395810483355</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.406259585337</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.509627919559</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="C5" t="n">
-        <v>1329.547110979147</v>
+        <v>1518.851284880194</v>
       </c>
       <c r="D5" t="n">
-        <v>971.2814123723965</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>971.2814123723965</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>560.295507582789</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.6952191369613</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C7" t="n">
-        <v>510.7590362090544</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1854.227472251596</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1599.542984045709</v>
+        <v>1378.488599602889</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.125814008748</v>
+        <v>1089.071429565929</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.136263110731</v>
+        <v>861.0818786679114</v>
       </c>
       <c r="Y7" t="n">
-        <v>861.3436839672011</v>
+        <v>640.2892995243812</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>920.7766538636581</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>534.9884012654138</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>528.0429005162104</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,25 +4799,25 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296686</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1767.918581386758</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1767.918581386758</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5027,13 +5027,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192548</v>
@@ -5042,31 +5042,31 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.7118147508</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072698</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5531,31 +5531,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,52 +5732,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5890,22 +5890,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,7 +5984,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,7 +5996,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311364</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032295</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,10 +6461,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>513.8536007400712</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>366.9636532421608</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>199.7675539570408</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7409,7 +7409,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>270.906955875391</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>67.54000767002776</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.75554125013454</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>84.99383243580195</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>139.4693302300328</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>35.40333084624568</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187583</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>46.24115926564453</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
@@ -26326,34 +26326,34 @@
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.6147597546</v>
-      </c>
       <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="H4" t="n">
         <v>14216.75207685509</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>14216.75207685509</v>
       </c>
-      <c r="G4" t="n">
-        <v>14216.7520768551</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14216.75207685508</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14216.75207685507</v>
-      </c>
       <c r="J4" t="n">
+        <v>14216.75207685504</v>
+      </c>
+      <c r="K4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.75207685506</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26522,46 +26522,46 @@
         <v>-893775.1014923728</v>
       </c>
       <c r="C6" t="n">
-        <v>434969.6442352203</v>
+        <v>434969.6442352199</v>
       </c>
       <c r="D6" t="n">
-        <v>434969.6442352203</v>
+        <v>434969.6442352199</v>
       </c>
       <c r="E6" t="n">
-        <v>184786.8710516375</v>
+        <v>184752.1331262016</v>
       </c>
       <c r="F6" t="n">
-        <v>510199.3328589927</v>
+        <v>510164.5949335572</v>
       </c>
       <c r="G6" t="n">
-        <v>510199.3328589926</v>
+        <v>510164.5949335572</v>
       </c>
       <c r="H6" t="n">
-        <v>510199.3328589926</v>
+        <v>510164.594933557</v>
       </c>
       <c r="I6" t="n">
-        <v>510199.3328589925</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="J6" t="n">
-        <v>292668.130461715</v>
+        <v>292633.3925362795</v>
       </c>
       <c r="K6" t="n">
-        <v>510199.3328589927</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="L6" t="n">
-        <v>510199.3328589927</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="M6" t="n">
-        <v>425144.3049234809</v>
+        <v>425109.5669980451</v>
       </c>
       <c r="N6" t="n">
-        <v>510199.3328589927</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="O6" t="n">
-        <v>510199.3328589927</v>
+        <v>510164.594933557</v>
       </c>
       <c r="P6" t="n">
-        <v>510199.3328589926</v>
+        <v>510164.5949335567</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.31858678468334e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.31858678468334e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.31858678468334e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.31858678468334e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.31858678468334e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.31858678468334e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.31858678468334e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.31858678468334e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>261.9597511231265</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>82.47744725539758</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>112.5878114315662</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.6308914313325</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11.20317071189987</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>258.2608625746003</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>213.8754331270851</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>207.0698816007391</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>290.1909435705132</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803264</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>61.76674224145199</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.285372470912986e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>9.285372470912986e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-4.551261486021622e-13</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31619,7 +31619,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>567.4250434254225</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,7 +31993,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>538.5853835133125</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>241.387751759078</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32552,25 +32552,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32789,28 +32789,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33500,19 +33500,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>526.2989357561996</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35267,7 +35267,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>436.0833313420891</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,7 +35641,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912942</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.5501250924113</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>394.9572236728663</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
